--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.4543469945546</v>
+        <v>68944.41505191606</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.4543469945546</v>
+        <v>68944.41505191606</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81514.4974740599</v>
+        <v>5509689.341965602</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81514.4974740599</v>
+        <v>5509689.341965602</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418639506.045511</v>
+        <v>52272521.34970857</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15081.23082825964</v>
+        <v>1242083.286425564</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28996.66576034666</v>
+        <v>2280857.011919879</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42908.39795831699</v>
+        <v>3319553.942097506</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57120.27303512624</v>
+        <v>4356277.916223644</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71318.4366993899</v>
+        <v>5393933.779398103</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85516.60036365358</v>
+        <v>6431589.642572562</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99714.68551699891</v>
+        <v>7469245.505747015</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113912.8491812626</v>
+        <v>8506901.368921466</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128320.7278941873</v>
+        <v>9501144.950435409</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142565.1092554279</v>
+        <v>10544866.00577366</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>156774.3294045472</v>
+        <v>11581589.97989979</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170983.5495536666</v>
+        <v>12618313.95402592</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185192.769702786</v>
+        <v>13655037.92815207</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199658.9191853308</v>
+        <v>14665345.92856553</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214490.5614622823</v>
+        <v>15638953.10975089</v>
       </c>
     </row>
   </sheetData>
